--- a/classfiers/bloated/elm/nearmiss/bloated_elm_tanh_nearmiss_results.xlsx
+++ b/classfiers/bloated/elm/nearmiss/bloated_elm_tanh_nearmiss_results.xlsx
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
         <v>0.5</v>
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.48</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6640625</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8896103896103896</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4842194570135747</v>
+        <v>0.4151960784313726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7549450549450549</v>
+        <v>0.7233333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5796491228070175</v>
+        <v>0.517547619047619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6152847152847153</v>
+        <v>0.5969034090909091</v>
       </c>
     </row>
   </sheetData>
